--- a/blank.xlsx
+++ b/blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winnie\PycharmProjects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75838EF1-9624-48E7-B3B1-53EB770A8D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B7AFB5-9DAA-4DBB-B8C0-7C865E634946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E8E98DD-AD57-4571-9368-39658E42A564}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Provider</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>Missing Code or value</t>
+  </si>
+  <si>
+    <t>Learn to use at https://github.com/MKSanic/myob-entry/tree/main</t>
+  </si>
+  <si>
+    <t>FAFs</t>
+  </si>
+  <si>
+    <t>OR FAFs</t>
+  </si>
+  <si>
+    <t>Override comm</t>
+  </si>
+  <si>
+    <t>Initial Comm</t>
+  </si>
+  <si>
+    <t>Fund Base</t>
+  </si>
+  <si>
+    <t>Renewal</t>
   </si>
 </sst>
 </file>
@@ -241,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -257,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA0417-006A-4B57-B269-364F2DCCE2B6}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,13 +631,13 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="36.28515625" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>19</v>
@@ -650,41 +674,53 @@
       <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J2" s="5"/>
       <c r="K2" s="7"/>
       <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2">
         <v>49100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J3" s="5"/>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3">
         <v>49150</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J4" s="5"/>
       <c r="K4" s="7"/>
       <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4">
         <v>47000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
@@ -692,11 +728,14 @@
       <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5">
         <v>47100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J6" s="5"/>
       <c r="K6" t="s">
         <v>9</v>
@@ -704,11 +743,14 @@
       <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6">
         <v>40500</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J7" s="5"/>
       <c r="K7" t="s">
         <v>10</v>
@@ -716,11 +758,14 @@
       <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7">
         <v>41000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J8" s="5" t="s">
         <v>37</v>
       </c>
@@ -731,7 +776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J9" s="5"/>
       <c r="K9" t="s">
         <v>12</v>
@@ -740,7 +785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J10" s="5"/>
       <c r="K10" t="s">
         <v>13</v>
@@ -749,7 +794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
       <c r="K11" t="s">
         <v>14</v>
@@ -758,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J12" s="5" t="s">
         <v>38</v>
       </c>
@@ -769,7 +814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J13" s="5"/>
       <c r="K13" t="s">
         <v>16</v>
@@ -778,19 +823,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J14" s="5"/>
       <c r="L14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J15" s="5"/>
       <c r="L15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J16" s="3"/>
       <c r="L16" t="s">
         <v>35</v>
@@ -877,17 +922,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J5:J7"/>
     <mergeCell ref="K1:K5"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="J12:J15"/>
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="J20:J26"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/blank.xlsx
+++ b/blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winnie\PycharmProjects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B7AFB5-9DAA-4DBB-B8C0-7C865E634946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C72CF54-9D06-4553-86CA-56D755B04AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E8E98DD-AD57-4571-9368-39658E42A564}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Provider</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Renewal</t>
+  </si>
+  <si>
+    <t>Monument Intl Life Ass Co Ltd</t>
   </si>
 </sst>
 </file>
@@ -270,6 +273,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -278,9 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA0417-006A-4B57-B269-364F2DCCE2B6}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,23 +668,23 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="8"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J2" s="5"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8"/>
       <c r="L2" t="s">
         <v>21</v>
       </c>
@@ -693,10 +696,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="8"/>
       <c r="L3" t="s">
         <v>22</v>
       </c>
@@ -708,8 +711,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J4" s="5"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8"/>
       <c r="L4" t="s">
         <v>23</v>
       </c>
@@ -721,10 +724,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="8"/>
       <c r="L5" t="s">
         <v>24</v>
       </c>
@@ -736,7 +739,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" t="s">
         <v>9</v>
       </c>
@@ -751,7 +754,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" t="s">
         <v>10</v>
       </c>
@@ -766,7 +769,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K8" t="s">
@@ -777,7 +780,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J9" s="5"/>
+      <c r="J9" s="6"/>
       <c r="K9" t="s">
         <v>12</v>
       </c>
@@ -786,7 +789,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" s="5"/>
+      <c r="J10" s="6"/>
       <c r="K10" t="s">
         <v>13</v>
       </c>
@@ -804,7 +807,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K12" t="s">
@@ -815,7 +818,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J13" s="5"/>
+      <c r="J13" s="6"/>
       <c r="K13" t="s">
         <v>16</v>
       </c>
@@ -824,13 +827,16 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
       <c r="L14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J15" s="5"/>
+      <c r="J15" s="6"/>
       <c r="L15" t="s">
         <v>34</v>
       </c>
@@ -842,7 +848,7 @@
       </c>
     </row>
     <row r="17" spans="10:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L17" t="s">
@@ -850,66 +856,66 @@
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J18" s="5"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J19" s="5"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="10:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="5"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J23" s="5"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J24" s="5"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J25" s="5"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J26" s="5"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="10:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J29" s="5"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J30" s="5"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J31" s="5"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J33" s="6"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J35" s="6"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="4" t="s">
